--- a/以太网配置/SDA/CX810/CX810项目m_ADC以太网配置需求v1.4.xlsx
+++ b/以太网配置/SDA/CX810/CX810项目m_ADC以太网配置需求v1.4.xlsx
@@ -3522,9 +3522,9 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:C62"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -4385,19 +4385,19 @@
       <c r="F47" s="85"/>
     </row>
     <row r="48" ht="45" customHeight="1" spans="1:6">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="82" t="s">
+      <c r="B48" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="82">
+      <c r="D48" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="86">
         <v>6</v>
       </c>
       <c r="F48" s="85"/>
